--- a/mcp/test_quote.xlsx
+++ b/mcp/test_quote.xlsx
@@ -1057,22 +1057,26 @@
       <c r="H15" t="n">
         <v>0.18</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
+        <f>G15*(1-H15)</f>
         <v>19.68</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
+        <f>I15*J15</f>
         <v>19.68</v>
       </c>
       <c r="L15" t="n">
         <v>0.18</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
+        <f>K15*L15</f>
         <v>3.5423999999999998</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
+        <f>K15+M15</f>
         <v>23.2224</v>
       </c>
     </row>
@@ -1111,22 +1115,26 @@
       <c r="H16" t="n">
         <v>0.18</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
+        <f>G16*(1-H16)</f>
         <v>24.6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
+        <f>I16*J16</f>
         <v>24.6</v>
       </c>
       <c r="L16" t="n">
         <v>0.18</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
+        <f>K16*L16</f>
         <v>4.428</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
+        <f>K16+M16</f>
         <v>29.028000000000002</v>
       </c>
     </row>
@@ -1165,22 +1173,26 @@
       <c r="H17" t="n">
         <v>0.18</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
+        <f>G17*(1-H17)</f>
         <v>53.300000000000004</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
+        <f>I17*J17</f>
         <v>53.300000000000004</v>
       </c>
       <c r="L17" t="n">
         <v>0.18</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
+        <f>K17*L17</f>
         <v>9.594000000000001</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
+        <f>K17+M17</f>
         <v>62.894000000000005</v>
       </c>
     </row>
@@ -1219,22 +1231,26 @@
       <c r="H18" t="n">
         <v>0.18</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
+        <f>G18*(1-H18)</f>
         <v>58.220000000000006</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
+        <f>I18*J18</f>
         <v>58.220000000000006</v>
       </c>
       <c r="L18" t="n">
         <v>0.18</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
+        <f>K18*L18</f>
         <v>10.479600000000001</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
+        <f>K18+M18</f>
         <v>68.6996</v>
       </c>
     </row>
@@ -1273,22 +1289,26 @@
       <c r="H19" t="n">
         <v>0.18</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
+        <f>G19*(1-H19)</f>
         <v>9.84</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
+        <f>I19*J19</f>
         <v>9.84</v>
       </c>
       <c r="L19" t="n">
         <v>0.18</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
+        <f>K19*L19</f>
         <v>1.7711999999999999</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
+        <f>K19+M19</f>
         <v>11.6112</v>
       </c>
     </row>
@@ -1327,22 +1347,26 @@
       <c r="H20" t="n">
         <v>0.18</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
+        <f>G20*(1-H20)</f>
         <v>9.84</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
+        <f>I20*J20</f>
         <v>9.84</v>
       </c>
       <c r="L20" t="n">
         <v>0.18</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
+        <f>K20*L20</f>
         <v>1.7711999999999999</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
+        <f>K20+M20</f>
         <v>11.6112</v>
       </c>
     </row>
@@ -1381,22 +1405,26 @@
       <c r="H21" t="n">
         <v>0.18</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
+        <f>G21*(1-H21)</f>
         <v>9.84</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
+        <f>I21*J21</f>
         <v>9.84</v>
       </c>
       <c r="L21" t="n">
         <v>0.18</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
+        <f>K21*L21</f>
         <v>1.7711999999999999</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
+        <f>K21+M21</f>
         <v>11.6112</v>
       </c>
     </row>
@@ -1435,22 +1463,26 @@
       <c r="H22" t="n">
         <v>0.18</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
+        <f>G22*(1-H22)</f>
         <v>11.48</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
+        <f>I22*J22</f>
         <v>11.48</v>
       </c>
       <c r="L22" t="n">
         <v>0.18</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
+        <f>K22*L22</f>
         <v>2.0664</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
+        <f>K22+M22</f>
         <v>13.5464</v>
       </c>
     </row>
@@ -1489,22 +1521,26 @@
       <c r="H23" t="n">
         <v>0.18</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
+        <f>G23*(1-H23)</f>
         <v>37.720000000000006</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
+        <f>I23*J23</f>
         <v>37.720000000000006</v>
       </c>
       <c r="L23" t="n">
         <v>0.18</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
+        <f>K23*L23</f>
         <v>6.789600000000001</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
+        <f>K23+M23</f>
         <v>44.509600000000006</v>
       </c>
     </row>
@@ -1559,22 +1595,26 @@
       <c r="H24" t="n">
         <v>0.18</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
+        <f>G24*(1-H24)</f>
         <v>59.040000000000006</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
+        <f>I24*J24</f>
         <v>59.040000000000006</v>
       </c>
       <c r="L24" t="n">
         <v>0.18</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
+        <f>K24*L24</f>
         <v>10.6272</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
+        <f>K24+M24</f>
         <v>69.66720000000001</v>
       </c>
     </row>
@@ -1633,22 +1673,26 @@
       <c r="H25" t="n">
         <v>0.18</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
+        <f>G25*(1-H25)</f>
         <v>73.80000000000001</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
+        <f>I25*J25</f>
         <v>73.80000000000001</v>
       </c>
       <c r="L25" t="n">
         <v>0.18</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
+        <f>K25*L25</f>
         <v>13.284</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
+        <f>K25+M25</f>
         <v>87.08400000000002</v>
       </c>
     </row>
@@ -1707,22 +1751,26 @@
       <c r="H26" t="n">
         <v>0.18</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
+        <f>G26*(1-H26)</f>
         <v>93.48</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
+        <f>I26*J26</f>
         <v>93.48</v>
       </c>
       <c r="L26" t="n">
         <v>0.18</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
+        <f>K26*L26</f>
         <v>16.8264</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
+        <f>K26+M26</f>
         <v>110.3064</v>
       </c>
     </row>
@@ -1777,22 +1825,26 @@
       <c r="H27" t="n">
         <v>0.18</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
+        <f>G27*(1-H27)</f>
         <v>93.48</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
+        <f>I27*J27</f>
         <v>93.48</v>
       </c>
       <c r="L27" t="n">
         <v>0.18</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
+        <f>K27*L27</f>
         <v>16.8264</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
+        <f>K27+M27</f>
         <v>110.3064</v>
       </c>
     </row>
@@ -1839,22 +1891,26 @@
       <c r="H28" t="n">
         <v>0.18</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
+        <f>G28*(1-H28)</f>
         <v>93.48</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
+        <f>I28*J28</f>
         <v>93.48</v>
       </c>
       <c r="L28" t="n">
         <v>0.18</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
+        <f>K28*L28</f>
         <v>16.8264</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
+        <f>K28+M28</f>
         <v>110.3064</v>
       </c>
     </row>
@@ -1904,22 +1960,26 @@
       <c r="H29" t="n">
         <v>0.18</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
+        <f>G29*(1-H29)</f>
         <v>93.48</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
+        <f>I29*J29</f>
         <v>93.48</v>
       </c>
       <c r="L29" t="n">
         <v>0.18</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
+        <f>K29*L29</f>
         <v>16.8264</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
+        <f>K29+M29</f>
         <v>110.3064</v>
       </c>
     </row>
@@ -1940,7 +2000,8 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
+        <f>SUM(N15:N29)</f>
         <v>874.71</v>
       </c>
     </row>
